--- a/MissFrame/LuBan/Config/Datas/__enums__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>显示特效路径</t>
+  </si>
+  <si>
+    <t>TweenLookAt</t>
+  </si>
+  <si>
+    <t>看向目标</t>
+  </si>
+  <si>
+    <t>TweenMove</t>
+  </si>
+  <si>
+    <t>移动至目标</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1132,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1368,6 +1382,28 @@
         <v>43</v>
       </c>
     </row>
+    <row r="15" spans="7:10">
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10">
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/MissFrame/LuBan/Config/Datas/__enums__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="24930" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>移动至目标</t>
+  </si>
+  <si>
+    <t>ScannerShader</t>
+  </si>
+  <si>
+    <t>扫描着色器设置</t>
   </si>
 </sst>
 </file>
@@ -794,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +809,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -812,6 +821,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1132,12 +1147,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1149,90 +1164,90 @@
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="5.25" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="99" customHeight="1" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
@@ -1250,7 +1265,7 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
       <c r="J4" t="s">
@@ -1264,7 +1279,7 @@
       <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
       <c r="J5" t="s">
@@ -1278,7 +1293,7 @@
       <c r="H6" t="s">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>3</v>
       </c>
       <c r="J6" t="s">
@@ -1292,7 +1307,7 @@
       <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>4</v>
       </c>
       <c r="J7" t="s">
@@ -1312,7 +1327,7 @@
       <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1320,7 +1335,7 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1328,7 +1343,7 @@
       <c r="G10" t="s">
         <v>34</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1336,7 +1351,7 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>8</v>
       </c>
     </row>
@@ -1344,7 +1359,7 @@
       <c r="G12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J12" t="s">
@@ -1364,7 +1379,7 @@
       <c r="G13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1375,7 +1390,7 @@
       <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="8">
         <v>2</v>
       </c>
       <c r="J14" s="2" t="s">
@@ -1386,7 +1401,7 @@
       <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="8">
         <v>3</v>
       </c>
       <c r="J15" t="s">
@@ -1397,11 +1412,22 @@
       <c r="G16" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="8">
         <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/MissFrame/LuBan/Config/Datas/__enums__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__enums__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>扫描着色器设置</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>物体高亮</t>
   </si>
 </sst>
 </file>
@@ -1147,12 +1153,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1430,6 +1436,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="18" spans="7:10">
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="3">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/MissFrame/LuBan/Config/Datas/__enums__.xlsx
+++ b/MissFrame/LuBan/Config/Datas/__enums__.xlsx
@@ -1158,7 +1158,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
